--- a/stats.xlsx
+++ b/stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\deduper\super-duper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1528799D-976A-4094-89DD-C543BB4D28A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E4B7C6C-FEED-42CE-86FF-25013810F1DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B4F81478-EDC6-4AF2-8C94-8DECCD28A9F1}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="78">
   <si>
     <t>id</t>
   </si>
@@ -236,6 +236,42 @@
   </si>
   <si>
     <t>Records / sec</t>
+  </si>
+  <si>
+    <t>Insert path_part</t>
+  </si>
+  <si>
+    <t>Input rows</t>
+  </si>
+  <si>
+    <t>Inserted rows</t>
+  </si>
+  <si>
+    <t>Crash</t>
+  </si>
+  <si>
+    <t>Chunk Size (Max = 65535 / Col Count (6))</t>
+  </si>
+  <si>
+    <t>Hashmap (no cap)</t>
+  </si>
+  <si>
+    <t>AHashmap (no cap)</t>
+  </si>
+  <si>
+    <t>Insert Time (ms)</t>
+  </si>
+  <si>
+    <t>Process Time</t>
+  </si>
+  <si>
+    <t>Process Rec/Sec</t>
+  </si>
+  <si>
+    <t>AHashmap (1255000)</t>
+  </si>
+  <si>
+    <t>Hashmap (1283850)</t>
   </si>
 </sst>
 </file>
@@ -244,8 +280,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="172" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -294,10 +330,10 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -633,31 +669,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8575576-B7CD-4022-B0CC-3DF2F1C8BE23}">
-  <dimension ref="B4:G12"/>
+  <dimension ref="B4:S25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" topLeftCell="F7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="R26" sqref="R26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>63</v>
       </c>
@@ -665,10 +705,10 @@
         <v>1025570</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>64</v>
       </c>
@@ -685,7 +725,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>59</v>
       </c>
@@ -693,11 +733,11 @@
         <v>499.65</v>
       </c>
       <c r="D9" s="3">
-        <f>C9/60</f>
+        <f t="shared" ref="D9:E12" si="0">C9/60</f>
         <v>8.3274999999999988</v>
       </c>
       <c r="E9" s="3">
-        <f>D9/60</f>
+        <f t="shared" si="0"/>
         <v>0.13879166666666665</v>
       </c>
       <c r="G9" s="4">
@@ -705,7 +745,7 @@
         <v>2052.576803762634</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>60</v>
       </c>
@@ -713,19 +753,19 @@
         <v>86488.75</v>
       </c>
       <c r="D10" s="3">
-        <f>C10/60</f>
+        <f t="shared" si="0"/>
         <v>1441.4791666666667</v>
       </c>
       <c r="E10" s="3">
-        <f>D10/60</f>
+        <f t="shared" si="0"/>
         <v>24.024652777777778</v>
       </c>
       <c r="G10" s="4">
-        <f t="shared" ref="G10:G12" si="0">$C$6/C10</f>
+        <f t="shared" ref="G10:G12" si="1">$C$6/C10</f>
         <v>11.857842783020914</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>61</v>
       </c>
@@ -733,19 +773,19 @@
         <v>1514.92</v>
       </c>
       <c r="D11" s="3">
-        <f>C11/60</f>
+        <f t="shared" si="0"/>
         <v>25.248666666666669</v>
       </c>
       <c r="E11" s="3">
-        <f>D11/60</f>
+        <f t="shared" si="0"/>
         <v>0.42081111111111114</v>
       </c>
       <c r="G11" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>676.9796424893724</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>62</v>
       </c>
@@ -753,16 +793,294 @@
         <v>283.02</v>
       </c>
       <c r="D12" s="3">
-        <f>C12/60</f>
+        <f t="shared" si="0"/>
         <v>4.7169999999999996</v>
       </c>
       <c r="E12" s="3">
-        <f>D12/60</f>
+        <f t="shared" si="0"/>
         <v>7.8616666666666654E-2</v>
       </c>
       <c r="G12" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3623.6661720019788</v>
+      </c>
+      <c r="Q12">
+        <f>P21/P20</f>
+        <v>1.2518063125871466</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="Q13">
+        <f>Q12*P20</f>
+        <v>1283815</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="J16">
+        <f>65535/6</f>
+        <v>10922.5</v>
+      </c>
+    </row>
+    <row r="18" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B18" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="P19" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>72</v>
+      </c>
+      <c r="R19" t="s">
+        <v>77</v>
+      </c>
+      <c r="S19" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20">
+        <v>30000</v>
+      </c>
+      <c r="D20">
+        <v>30000</v>
+      </c>
+      <c r="E20">
+        <v>30000</v>
+      </c>
+      <c r="F20">
+        <v>30000</v>
+      </c>
+      <c r="G20">
+        <v>30000</v>
+      </c>
+      <c r="H20">
+        <v>30000</v>
+      </c>
+      <c r="I20">
+        <v>30000</v>
+      </c>
+      <c r="J20">
+        <v>100000</v>
+      </c>
+      <c r="K20">
+        <v>100000</v>
+      </c>
+      <c r="L20">
+        <v>100000</v>
+      </c>
+      <c r="M20">
+        <v>250000</v>
+      </c>
+      <c r="N20">
+        <v>250000</v>
+      </c>
+      <c r="O20">
+        <v>250000</v>
+      </c>
+      <c r="P20">
+        <v>1025570</v>
+      </c>
+      <c r="Q20">
+        <v>1025570</v>
+      </c>
+      <c r="R20">
+        <v>1025570</v>
+      </c>
+      <c r="S20">
+        <v>1025570</v>
+      </c>
+    </row>
+    <row r="21" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21">
+        <v>61825</v>
+      </c>
+      <c r="D21">
+        <v>61825</v>
+      </c>
+      <c r="F21">
+        <v>63270</v>
+      </c>
+      <c r="J21">
+        <v>174300</v>
+      </c>
+      <c r="K21">
+        <v>175232</v>
+      </c>
+      <c r="M21">
+        <v>382998</v>
+      </c>
+      <c r="N21">
+        <v>382877</v>
+      </c>
+      <c r="O21">
+        <v>382792</v>
+      </c>
+      <c r="P21">
+        <v>1283815</v>
+      </c>
+      <c r="Q21">
+        <v>1283815</v>
+      </c>
+      <c r="R21">
+        <v>1283815</v>
+      </c>
+      <c r="S21">
+        <v>1283815</v>
+      </c>
+    </row>
+    <row r="22" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22">
+        <v>500</v>
+      </c>
+      <c r="D22">
+        <v>100</v>
+      </c>
+      <c r="E22">
+        <v>12000</v>
+      </c>
+      <c r="F22">
+        <v>10922</v>
+      </c>
+      <c r="G22">
+        <v>8000</v>
+      </c>
+      <c r="H22">
+        <v>7000</v>
+      </c>
+      <c r="I22">
+        <v>5000</v>
+      </c>
+      <c r="J22">
+        <v>10000</v>
+      </c>
+      <c r="K22">
+        <v>8000</v>
+      </c>
+      <c r="L22">
+        <v>5000</v>
+      </c>
+      <c r="M22">
+        <v>5000</v>
+      </c>
+      <c r="N22">
+        <v>10922</v>
+      </c>
+      <c r="O22">
+        <v>8000</v>
+      </c>
+      <c r="P22">
+        <v>10000</v>
+      </c>
+      <c r="Q22">
+        <v>10000</v>
+      </c>
+      <c r="R22">
+        <v>10000</v>
+      </c>
+      <c r="S22">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="23" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>73</v>
+      </c>
+      <c r="C23">
+        <v>888</v>
+      </c>
+      <c r="D23">
+        <v>1065</v>
+      </c>
+      <c r="E23" t="s">
+        <v>69</v>
+      </c>
+      <c r="F23">
+        <v>784</v>
+      </c>
+      <c r="G23">
+        <v>779</v>
+      </c>
+      <c r="H23">
+        <v>795</v>
+      </c>
+      <c r="I23">
+        <v>793</v>
+      </c>
+      <c r="J23">
+        <v>2285</v>
+      </c>
+      <c r="K23">
+        <v>2215</v>
+      </c>
+      <c r="L23">
+        <v>2282</v>
+      </c>
+      <c r="M23">
+        <v>5124</v>
+      </c>
+      <c r="N23">
+        <v>5012</v>
+      </c>
+      <c r="O23">
+        <v>5073</v>
+      </c>
+      <c r="P23">
+        <v>17573</v>
+      </c>
+      <c r="Q23">
+        <v>17905</v>
+      </c>
+      <c r="R23">
+        <v>17616</v>
+      </c>
+      <c r="S23">
+        <v>17961</v>
+      </c>
+    </row>
+    <row r="24" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>74</v>
+      </c>
+      <c r="P24">
+        <v>16970</v>
+      </c>
+      <c r="Q24">
+        <v>15317</v>
+      </c>
+      <c r="R24">
+        <v>16067</v>
+      </c>
+      <c r="S24">
+        <v>15070</v>
+      </c>
+    </row>
+    <row r="25" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>75</v>
+      </c>
+      <c r="P25">
+        <v>80238.44</v>
+      </c>
+      <c r="Q25">
+        <v>85587</v>
+      </c>
+      <c r="R25">
+        <v>80238.44</v>
+      </c>
+      <c r="S25">
+        <v>85587</v>
       </c>
     </row>
   </sheetData>

--- a/stats.xlsx
+++ b/stats.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\deduper\super-duper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E4B7C6C-FEED-42CE-86FF-25013810F1DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CADE8680-FE0A-42B1-AC8A-2BB5196D851F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B4F81478-EDC6-4AF2-8C94-8DECCD28A9F1}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{B4F81478-EDC6-4AF2-8C94-8DECCD28A9F1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="121">
   <si>
     <t>id</t>
   </si>
@@ -272,6 +273,135 @@
   </si>
   <si>
     <t>Hashmap (1283850)</t>
+  </si>
+  <si>
+    <t>\\?\C:\dev\deduper\test-data\folder2\file2-1.txt</t>
+  </si>
+  <si>
+    <t>\dev\deduper\test-data\folder2\file2-1.txt</t>
+  </si>
+  <si>
+    <t>\\?\C:\dev\deduper\test-data\folder2</t>
+  </si>
+  <si>
+    <t>\\?\C:\dev\deduper\test-data\folder1\file1-1.txt</t>
+  </si>
+  <si>
+    <t>\dev\deduper\test-data\folder1\file1-1.txt</t>
+  </si>
+  <si>
+    <t>\\?\C:\dev\deduper\test-data\folder1</t>
+  </si>
+  <si>
+    <t>\\?\C:\dev\deduper\test-data\folder2\file1 - Copy - Copy.wav</t>
+  </si>
+  <si>
+    <t>\dev\deduper\test-data\folder2\file1 - Copy - Copy.wav</t>
+  </si>
+  <si>
+    <t>\\?\C:\dev\deduper\test-data\folder2\file1 - Copy.wav</t>
+  </si>
+  <si>
+    <t>\dev\deduper\test-data\folder2\file1 - Copy.wav</t>
+  </si>
+  <si>
+    <t>\\?\C:\dev\deduper\test-data\folder1\file1.wav</t>
+  </si>
+  <si>
+    <t>\dev\deduper\test-data\folder1\file1.wav</t>
+  </si>
+  <si>
+    <t>\\?\C:\dev\deduper\test-data\folder2\file1.wav</t>
+  </si>
+  <si>
+    <t>\dev\deduper\test-data\folder2\file1.wav</t>
+  </si>
+  <si>
+    <t>drive_letter</t>
+  </si>
+  <si>
+    <t>path_no_drive</t>
+  </si>
+  <si>
+    <t>last_modified</t>
+  </si>
+  <si>
+    <t>content_hash</t>
+  </si>
+  <si>
+    <t>parent_dir</t>
+  </si>
+  <si>
+    <t>C:\dev</t>
+  </si>
+  <si>
+    <t>dev</t>
+  </si>
+  <si>
+    <t>C:\dev\deduper\test-data\folder2\file1.wav</t>
+  </si>
+  <si>
+    <t>file1.wav</t>
+  </si>
+  <si>
+    <t>C:\dev\deduper\test-data</t>
+  </si>
+  <si>
+    <t>test-data</t>
+  </si>
+  <si>
+    <t>C:\dev\deduper\test-data\folder2</t>
+  </si>
+  <si>
+    <t>folder2</t>
+  </si>
+  <si>
+    <t>C:\dev\deduper\test-data\folder1</t>
+  </si>
+  <si>
+    <t>folder1</t>
+  </si>
+  <si>
+    <t>C:\dev\deduper\test-data\folder2\file1 - Copy.wav</t>
+  </si>
+  <si>
+    <t>file1 - Copy.wav</t>
+  </si>
+  <si>
+    <t>C:\dev\deduper\test-data\folder1\file1.wav</t>
+  </si>
+  <si>
+    <t>C:\dev\deduper</t>
+  </si>
+  <si>
+    <t>deduper</t>
+  </si>
+  <si>
+    <t>C:\dev\deduper\test-data\folder1\file1-1.txt</t>
+  </si>
+  <si>
+    <t>file1-1.txt</t>
+  </si>
+  <si>
+    <t>C:\dev\deduper\test-data\folder2\file1 - Copy - Copy.wav</t>
+  </si>
+  <si>
+    <t>file1 - Copy - Copy.wav</t>
+  </si>
+  <si>
+    <t>C:</t>
+  </si>
+  <si>
+    <t>C:\dev\deduper\test-data\folder2\file2-1.txt</t>
+  </si>
+  <si>
+    <t>file2-1.txt</t>
+  </si>
+  <si>
+    <t>dupe_file</t>
+  </si>
+  <si>
+    <t>part_path</t>
   </si>
 </sst>
 </file>
@@ -328,18 +458,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -350,6 +490,38 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A2496463-E05A-4849-8E07-2A7EBE33D198}" name="Table1" displayName="Table1" ref="D15:K21" totalsRowShown="0">
+  <autoFilter ref="D15:K21" xr:uid="{A2496463-E05A-4849-8E07-2A7EBE33D198}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{958E5744-032E-49B5-9D06-10B6B4A2A8DE}" name="id"/>
+    <tableColumn id="2" xr3:uid="{264A1937-579E-4163-B564-BD3E0E381ECD}" name="canonical_name"/>
+    <tableColumn id="3" xr3:uid="{3E9583B5-4137-40A8-94F0-0CB2AD8A1F8C}" name="drive_letter"/>
+    <tableColumn id="4" xr3:uid="{7CB4B46F-4B76-498D-BFE8-A59236165BE8}" name="path_no_drive"/>
+    <tableColumn id="5" xr3:uid="{BB3C95CC-11E7-4D65-B94F-7ACC066ADD65}" name="file_size"/>
+    <tableColumn id="6" xr3:uid="{2E92AD16-BBE1-4857-8D7E-309510FA499C}" name="last_modified" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{247C9390-93EE-4849-8B4C-83B7C5F41BF4}" name="content_hash" dataDxfId="0"/>
+    <tableColumn id="8" xr3:uid="{EA02B9EB-EED0-4778-8924-AD892B86BC81}" name="parent_dir"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{EDF2895D-B512-4FD9-A05D-3A71AB041BC2}" name="Table2" displayName="Table2" ref="D26:I38" totalsRowShown="0">
+  <autoFilter ref="D26:I38" xr:uid="{EDF2895D-B512-4FD9-A05D-3A71AB041BC2}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{D4222197-91BF-40A0-A472-CED39F05B006}" name="id"/>
+    <tableColumn id="2" xr3:uid="{0BC6807A-B856-451B-B36D-01CE0BC29678}" name="canonical_name"/>
+    <tableColumn id="3" xr3:uid="{D6487174-306B-4463-8DD8-EDEA6F0305B3}" name="name"/>
+    <tableColumn id="4" xr3:uid="{ED5F1D68-1588-466C-A142-3D76984014B5}" name="file_size"/>
+    <tableColumn id="5" xr3:uid="{4B8BDEAF-D0F3-4004-87EF-B4DCAF01C72D}" name="parent_id"/>
+    <tableColumn id="6" xr3:uid="{EE8E1706-A2E8-45C1-81EF-8D10EF0FA7A6}" name="part_type"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -671,7 +843,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8575576-B7CD-4022-B0CC-3DF2F1C8BE23}">
   <dimension ref="B4:S25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView topLeftCell="F7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="R26" sqref="R26"/>
     </sheetView>
   </sheetViews>
@@ -1674,4 +1846,500 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBFED8B6-C64E-4264-A782-172D28469FED}">
+  <dimension ref="D6:K38"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="54.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" customWidth="1"/>
+    <col min="7" max="7" width="49.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" customWidth="1"/>
+    <col min="9" max="9" width="17.7109375" customWidth="1"/>
+    <col min="10" max="10" width="21" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="33.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="H6" s="5"/>
+    </row>
+    <row r="7" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="H7" s="5"/>
+    </row>
+    <row r="8" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="H8" s="5"/>
+    </row>
+    <row r="9" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="H9" s="5"/>
+    </row>
+    <row r="10" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="H10" s="5"/>
+    </row>
+    <row r="11" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="H11" s="5"/>
+    </row>
+    <row r="13" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D13" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="15" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>0</v>
+      </c>
+      <c r="E15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F15" t="s">
+        <v>92</v>
+      </c>
+      <c r="G15" t="s">
+        <v>93</v>
+      </c>
+      <c r="H15" t="s">
+        <v>6</v>
+      </c>
+      <c r="I15" t="s">
+        <v>94</v>
+      </c>
+      <c r="J15" t="s">
+        <v>95</v>
+      </c>
+      <c r="K15" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
+        <v>78</v>
+      </c>
+      <c r="F16" t="s">
+        <v>32</v>
+      </c>
+      <c r="G16" t="s">
+        <v>79</v>
+      </c>
+      <c r="H16">
+        <v>4</v>
+      </c>
+      <c r="I16" s="6">
+        <v>45367.208914675924</v>
+      </c>
+      <c r="J16" s="7">
+        <v>5.7546969283344097E+18</v>
+      </c>
+      <c r="K16" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17" t="s">
+        <v>81</v>
+      </c>
+      <c r="F17" t="s">
+        <v>32</v>
+      </c>
+      <c r="G17" t="s">
+        <v>82</v>
+      </c>
+      <c r="H17">
+        <v>4</v>
+      </c>
+      <c r="I17" s="6">
+        <v>45367.208914710645</v>
+      </c>
+      <c r="J17" s="7">
+        <v>5.7546969283344097E+18</v>
+      </c>
+      <c r="K17" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="E18" t="s">
+        <v>84</v>
+      </c>
+      <c r="F18" t="s">
+        <v>32</v>
+      </c>
+      <c r="G18" t="s">
+        <v>85</v>
+      </c>
+      <c r="H18">
+        <v>48688224</v>
+      </c>
+      <c r="I18" s="6">
+        <v>44090.267930543981</v>
+      </c>
+      <c r="J18" s="7">
+        <v>-4.6264328937443901E+18</v>
+      </c>
+      <c r="K18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D19">
+        <v>4</v>
+      </c>
+      <c r="E19" t="s">
+        <v>86</v>
+      </c>
+      <c r="F19" t="s">
+        <v>32</v>
+      </c>
+      <c r="G19" t="s">
+        <v>87</v>
+      </c>
+      <c r="H19">
+        <v>48688224</v>
+      </c>
+      <c r="I19" s="6">
+        <v>44090.267930543981</v>
+      </c>
+      <c r="J19" s="7">
+        <v>-4.6264328937443901E+18</v>
+      </c>
+      <c r="K19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D20">
+        <v>5</v>
+      </c>
+      <c r="E20" t="s">
+        <v>88</v>
+      </c>
+      <c r="F20" t="s">
+        <v>32</v>
+      </c>
+      <c r="G20" t="s">
+        <v>89</v>
+      </c>
+      <c r="H20">
+        <v>48688224</v>
+      </c>
+      <c r="I20" s="6">
+        <v>44090.267930543981</v>
+      </c>
+      <c r="J20" s="7">
+        <v>-4.6264328937443901E+18</v>
+      </c>
+      <c r="K20" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D21">
+        <v>6</v>
+      </c>
+      <c r="E21" t="s">
+        <v>90</v>
+      </c>
+      <c r="F21" t="s">
+        <v>32</v>
+      </c>
+      <c r="G21" t="s">
+        <v>91</v>
+      </c>
+      <c r="H21">
+        <v>48688224</v>
+      </c>
+      <c r="I21" s="6">
+        <v>44090.267930543981</v>
+      </c>
+      <c r="J21" s="7">
+        <v>-4.6264328937443901E+18</v>
+      </c>
+      <c r="K21" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D24" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="26" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
+        <v>0</v>
+      </c>
+      <c r="E26" t="s">
+        <v>1</v>
+      </c>
+      <c r="F26" t="s">
+        <v>2</v>
+      </c>
+      <c r="G26" t="s">
+        <v>6</v>
+      </c>
+      <c r="H26" t="s">
+        <v>44</v>
+      </c>
+      <c r="I26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27" t="s">
+        <v>97</v>
+      </c>
+      <c r="F27" t="s">
+        <v>98</v>
+      </c>
+      <c r="G27">
+        <v>194752904</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D28">
+        <v>12</v>
+      </c>
+      <c r="E28" t="s">
+        <v>99</v>
+      </c>
+      <c r="F28" t="s">
+        <v>100</v>
+      </c>
+      <c r="G28">
+        <v>48688224</v>
+      </c>
+      <c r="H28">
+        <v>5</v>
+      </c>
+      <c r="I28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D29">
+        <v>4</v>
+      </c>
+      <c r="E29" t="s">
+        <v>101</v>
+      </c>
+      <c r="F29" t="s">
+        <v>102</v>
+      </c>
+      <c r="G29">
+        <v>194752904</v>
+      </c>
+      <c r="H29">
+        <v>3</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D30">
+        <v>5</v>
+      </c>
+      <c r="E30" t="s">
+        <v>103</v>
+      </c>
+      <c r="F30" t="s">
+        <v>104</v>
+      </c>
+      <c r="G30">
+        <v>146064676</v>
+      </c>
+      <c r="H30">
+        <v>4</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D31">
+        <v>7</v>
+      </c>
+      <c r="E31" t="s">
+        <v>105</v>
+      </c>
+      <c r="F31" t="s">
+        <v>106</v>
+      </c>
+      <c r="G31">
+        <v>48688228</v>
+      </c>
+      <c r="H31">
+        <v>4</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D32">
+        <v>10</v>
+      </c>
+      <c r="E32" t="s">
+        <v>107</v>
+      </c>
+      <c r="F32" t="s">
+        <v>108</v>
+      </c>
+      <c r="G32">
+        <v>48688224</v>
+      </c>
+      <c r="H32">
+        <v>5</v>
+      </c>
+      <c r="I32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D33">
+        <v>11</v>
+      </c>
+      <c r="E33" t="s">
+        <v>109</v>
+      </c>
+      <c r="F33" t="s">
+        <v>100</v>
+      </c>
+      <c r="G33">
+        <v>48688224</v>
+      </c>
+      <c r="H33">
+        <v>7</v>
+      </c>
+      <c r="I33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D34">
+        <v>3</v>
+      </c>
+      <c r="E34" t="s">
+        <v>110</v>
+      </c>
+      <c r="F34" t="s">
+        <v>111</v>
+      </c>
+      <c r="G34">
+        <v>194752904</v>
+      </c>
+      <c r="H34">
+        <v>2</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D35">
+        <v>8</v>
+      </c>
+      <c r="E35" t="s">
+        <v>112</v>
+      </c>
+      <c r="F35" t="s">
+        <v>113</v>
+      </c>
+      <c r="G35">
+        <v>4</v>
+      </c>
+      <c r="H35">
+        <v>7</v>
+      </c>
+      <c r="I35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D36">
+        <v>9</v>
+      </c>
+      <c r="E36" t="s">
+        <v>114</v>
+      </c>
+      <c r="F36" t="s">
+        <v>115</v>
+      </c>
+      <c r="G36">
+        <v>48688224</v>
+      </c>
+      <c r="H36">
+        <v>5</v>
+      </c>
+      <c r="I36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37" t="s">
+        <v>116</v>
+      </c>
+      <c r="F37" t="s">
+        <v>116</v>
+      </c>
+      <c r="G37">
+        <v>194752904</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D38">
+        <v>6</v>
+      </c>
+      <c r="E38" t="s">
+        <v>117</v>
+      </c>
+      <c r="F38" t="s">
+        <v>118</v>
+      </c>
+      <c r="G38">
+        <v>4</v>
+      </c>
+      <c r="H38">
+        <v>5</v>
+      </c>
+      <c r="I38">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <tableParts count="2">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
 </file>